--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_10.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376800.6061809956</v>
+        <v>376800.6061809955</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221765</v>
+        <v>2629876.587221766</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179434</v>
+        <v>19997574.02179436</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>34.86547882798917</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="X2" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="3">
@@ -747,52 +747,52 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H3" t="n">
+      <c r="S3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I3" t="n">
+      <c r="T3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>39.58387696184059</v>
@@ -950,7 +950,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>39.58387696184059</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="H6" t="n">
         <v>39.58387696184059</v>
@@ -996,7 +996,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.977552361264268</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R7" t="n">
         <v>39.58387696184059</v>
@@ -1105,7 +1105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="T7" t="n">
-        <v>39.58387696184059</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>39.58387696184059</v>
@@ -1187,7 +1187,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="U8" t="n">
-        <v>24.87477961344436</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1221,52 +1221,52 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H9" t="n">
+      <c r="S9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I9" t="n">
+      <c r="T9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="H10" t="n">
-        <v>27.29193749722201</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I10" t="n">
         <v>39.58387696184059</v>
@@ -1315,7 +1315,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,76 +1367,76 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="T11" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>34.86547882798917</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1458,52 +1458,52 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="S12" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H12" t="n">
+      <c r="T12" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I12" t="n">
+      <c r="U12" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1616,52 +1616,52 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H14" t="n">
+      <c r="S14" t="n">
+        <v>24.87477961344436</v>
+      </c>
+      <c r="T14" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I14" t="n">
+      <c r="U14" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1695,55 +1695,55 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="T15" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H15" t="n">
+      <c r="U15" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I15" t="n">
+      <c r="V15" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>39.58387696184059</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="I16" t="n">
         <v>39.58387696184059</v>
@@ -1789,7 +1789,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="K16" t="n">
-        <v>9.977552361264268</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1853,52 +1853,52 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="G17" t="n">
+      <c r="S17" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="H17" t="n">
+      <c r="T17" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="I17" t="n">
-        <v>38.87161743162454</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0.790450447682262</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>123.9717416665522</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>191.264473050588</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2330,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,28 +2360,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>62.4162677022923</v>
       </c>
       <c r="Y23" t="n">
         <v>241.0142888776591</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>13.03362074944456</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -2445,22 +2445,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>97.48188567889169</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,16 +2491,16 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2555,28 +2555,28 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,28 +2597,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="V26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,22 +2640,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>110.1113226016109</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,22 +2682,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.8731252940988786</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,61 +2801,61 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U29" t="n">
-        <v>68.38541766120755</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>23.81390751390911</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>145.9272112248127</v>
       </c>
     </row>
     <row r="31">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,13 +3041,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>84.41978777916125</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3108,25 +3108,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>106.0644964958682</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>118.0823656652538</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3168,13 +3168,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3308,13 +3308,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,19 +3351,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>127.9723670217282</v>
       </c>
       <c r="H36" t="n">
-        <v>26.92846591669594</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3509,19 +3509,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3588,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>125.7440854491577</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3642,7 +3642,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>208.2792470398066</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>236.4659934602711</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>198.2885478252619</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>236.4659934602711</v>
-      </c>
-      <c r="X41" t="n">
-        <v>236.4659934602711</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3831,13 +3831,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>49.01417441537503</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>145.2661076642489</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4056,16 +4056,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4074,38 +4074,38 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="S45" t="n">
         <v>34.86547882798917</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
@@ -4119,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4135,56 +4135,56 @@
         <v>39.58387696184059</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>9.977552361264268</v>
+      </c>
+      <c r="R46" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D46" t="n">
+      <c r="S46" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C2" t="n">
         <v>3.166710156947247</v>
@@ -4331,16 +4331,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L2" t="n">
-        <v>3.166710156947247</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M2" t="n">
-        <v>40.77139327069581</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O2" t="n">
         <v>119.1474696551402</v>
@@ -4355,25 +4355,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="S2" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T2" t="n">
-        <v>123.1178524655551</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U2" t="n">
-        <v>123.1178524655551</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V2" t="n">
-        <v>123.1178524655551</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W2" t="n">
+        <v>118.3517937444931</v>
+      </c>
+      <c r="X2" t="n">
+        <v>118.3517937444931</v>
+      </c>
+      <c r="Y2" t="n">
         <v>83.13413836268582</v>
-      </c>
-      <c r="X2" t="n">
-        <v>43.15042425981653</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F3" t="n">
-        <v>123.8719851183408</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G3" t="n">
-        <v>83.88827101547153</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H3" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J3" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M3" t="n">
-        <v>3.166710156947247</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N3" t="n">
-        <v>40.77139327069581</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q3" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="4">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28.29275017052741</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C5" t="n">
-        <v>28.29275017052741</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D5" t="n">
-        <v>28.29275017052741</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E5" t="n">
-        <v>28.29275017052741</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F5" t="n">
-        <v>28.29275017052741</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G5" t="n">
-        <v>28.29275017052741</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H5" t="n">
-        <v>28.29275017052741</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I5" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J5" t="n">
         <v>3.166710156947247</v>
@@ -4586,31 +4586,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R5" t="n">
-        <v>108.260178376266</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S5" t="n">
-        <v>68.2764642733967</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T5" t="n">
-        <v>28.29275017052741</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U5" t="n">
-        <v>28.29275017052741</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V5" t="n">
-        <v>28.29275017052741</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W5" t="n">
-        <v>28.29275017052741</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X5" t="n">
-        <v>28.29275017052741</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y5" t="n">
-        <v>28.29275017052741</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1178524655551</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G6" t="n">
-        <v>83.13413836268582</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="H6" t="n">
-        <v>43.15042425981653</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J6" t="n">
         <v>3.166710156947247</v>
@@ -4650,46 +4650,46 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L6" t="n">
-        <v>40.77139327069581</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M6" t="n">
-        <v>79.95943146291799</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N6" t="n">
+        <v>81.54278654139161</v>
+      </c>
+      <c r="O6" t="n">
         <v>119.1474696551402</v>
       </c>
-      <c r="O6" t="n">
-        <v>158.3355078473624</v>
-      </c>
       <c r="P6" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q6" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="7">
@@ -4744,13 +4744,13 @@
         <v>133.1961881840039</v>
       </c>
       <c r="Q7" t="n">
-        <v>123.1178524655551</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R7" t="n">
-        <v>83.13413836268582</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="S7" t="n">
-        <v>43.15042425981653</v>
+        <v>13.245045875396</v>
       </c>
       <c r="T7" t="n">
         <v>3.166710156947247</v>
@@ -4805,16 +4805,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
+        <v>42.35474834916943</v>
+      </c>
+      <c r="M8" t="n">
         <v>79.95943146291799</v>
       </c>
-      <c r="M8" t="n">
-        <v>119.1474696551402</v>
-      </c>
       <c r="N8" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O8" t="n">
         <v>119.1474696551402</v>
@@ -4823,16 +4823,16 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>108.260178376266</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S8" t="n">
-        <v>68.2764642733967</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T8" t="n">
-        <v>28.29275017052741</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U8" t="n">
         <v>3.166710156947247</v>
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F9" t="n">
-        <v>123.8719851183408</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G9" t="n">
-        <v>83.88827101547153</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J9" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L9" t="n">
-        <v>3.166710156947247</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M9" t="n">
-        <v>40.77139327069581</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O9" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P9" t="n">
         <v>158.3355078473624</v>
@@ -4905,28 +4905,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="10">
@@ -4951,16 +4951,16 @@
         <v>133.1961881840039</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1961881840039</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="H10" t="n">
-        <v>105.6285745504463</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="I10" t="n">
-        <v>65.64486044757699</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K10" t="n">
         <v>3.166710156947247</v>
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C11" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D11" t="n">
         <v>3.166710156947247</v>
@@ -5042,16 +5042,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>40.77139327069581</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L11" t="n">
         <v>40.77139327069581</v>
       </c>
       <c r="M11" t="n">
+        <v>40.77139327069581</v>
+      </c>
+      <c r="N11" t="n">
         <v>79.95943146291799</v>
-      </c>
-      <c r="N11" t="n">
-        <v>119.1474696551402</v>
       </c>
       <c r="O11" t="n">
         <v>119.1474696551402</v>
@@ -5066,25 +5066,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="S11" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T11" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U11" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V11" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W11" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X11" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y11" t="n">
-        <v>78.36807964162378</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F12" t="n">
-        <v>123.8719851183408</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G12" t="n">
-        <v>83.88827101547153</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H12" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J12" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L12" t="n">
-        <v>40.77139327069581</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M12" t="n">
-        <v>40.77139327069581</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N12" t="n">
-        <v>40.77139327069581</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O12" t="n">
-        <v>79.95943146291799</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q12" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="13">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F14" t="n">
-        <v>123.1178524655551</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G14" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H14" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I14" t="n">
         <v>3.166710156947247</v>
@@ -5282,46 +5282,46 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M14" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N14" t="n">
         <v>119.1474696551402</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P14" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F15" t="n">
-        <v>123.8719851183408</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G15" t="n">
-        <v>83.88827101547153</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H15" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I15" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J15" t="n">
         <v>3.166710156947247</v>
@@ -5364,13 +5364,13 @@
         <v>42.35474834916943</v>
       </c>
       <c r="M15" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N15" t="n">
-        <v>81.54278654139161</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O15" t="n">
-        <v>120.7308247336138</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P15" t="n">
         <v>158.3355078473624</v>
@@ -5382,25 +5382,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="16">
@@ -5428,13 +5428,13 @@
         <v>133.1961881840039</v>
       </c>
       <c r="H16" t="n">
-        <v>93.21247408113457</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I16" t="n">
-        <v>53.22875997826529</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J16" t="n">
-        <v>13.245045875396</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K16" t="n">
         <v>3.166710156947247</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C17" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D17" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E17" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F17" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G17" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H17" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
         <v>3.530573790338288</v>
@@ -5516,16 +5516,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
+        <v>3.530573790338288</v>
+      </c>
+      <c r="L17" t="n">
         <v>47.22142444577459</v>
       </c>
-      <c r="L17" t="n">
-        <v>90.91227510121089</v>
-      </c>
       <c r="M17" t="n">
-        <v>132.8378388614781</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O17" t="n">
         <v>132.8378388614781</v>
@@ -5534,31 +5534,31 @@
         <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V17" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W17" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X17" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="18">
@@ -5595,7 +5595,7 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L18" t="n">
         <v>47.22142444577459</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="K19" t="n">
         <v>3.530573790338288</v>
@@ -5695,7 +5695,7 @@
         <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
-        <v>93.48491238239833</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S19" t="n">
         <v>93.48491238239833</v>
@@ -5704,19 +5704,19 @@
         <v>48.90696048418764</v>
       </c>
       <c r="U19" t="n">
+        <v>48.90696048418764</v>
+      </c>
+      <c r="V19" t="n">
+        <v>48.90696048418764</v>
+      </c>
+      <c r="W19" t="n">
+        <v>48.90696048418764</v>
+      </c>
+      <c r="X19" t="n">
         <v>4.329008585976936</v>
       </c>
-      <c r="V19" t="n">
-        <v>3.530573790338288</v>
-      </c>
-      <c r="W19" t="n">
-        <v>3.530573790338288</v>
-      </c>
-      <c r="X19" t="n">
-        <v>3.530573790338288</v>
-      </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="20">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>318.9581538727056</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>144.5051245915786</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5835,10 +5835,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
         <v>473.4149733950735</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="V21" t="n">
-        <v>526.7184526376595</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="W21" t="n">
-        <v>526.7184526376595</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X21" t="n">
-        <v>526.7184526376595</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y21" t="n">
-        <v>318.9581538727056</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U23" t="n">
-        <v>569.2254314512334</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V23" t="n">
-        <v>569.2254314512334</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W23" t="n">
-        <v>569.2254314512334</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>158.7661011803829</v>
+        <v>385.8037236438013</v>
       </c>
       <c r="C24" t="n">
-        <v>158.7661011803829</v>
+        <v>385.8037236438013</v>
       </c>
       <c r="D24" t="n">
-        <v>158.7661011803829</v>
+        <v>236.8693139825501</v>
       </c>
       <c r="E24" t="n">
-        <v>158.7661011803829</v>
+        <v>236.8693139825501</v>
       </c>
       <c r="F24" t="n">
-        <v>158.7661011803829</v>
+        <v>236.8693139825501</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
         <v>20.03527576299844</v>
@@ -6072,19 +6072,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>865.5906043198365</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>865.5906043198365</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>637.3669860562256</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>402.214877824483</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>158.7661011803829</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X24" t="n">
-        <v>158.7661011803829</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y24" t="n">
-        <v>158.7661011803829</v>
+        <v>554.0190606638694</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>619.4388494194218</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C27" t="n">
-        <v>619.4388494194218</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D27" t="n">
-        <v>619.4388494194218</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E27" t="n">
-        <v>508.2152912359765</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F27" t="n">
-        <v>361.6807332628614</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6330,25 +6330,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>486.4017421314428</v>
       </c>
       <c r="V27" t="n">
-        <v>862.8876260635219</v>
+        <v>486.4017421314428</v>
       </c>
       <c r="W27" t="n">
-        <v>619.4388494194218</v>
+        <v>486.4017421314428</v>
       </c>
       <c r="X27" t="n">
-        <v>619.4388494194218</v>
+        <v>278.55024192591</v>
       </c>
       <c r="Y27" t="n">
-        <v>619.4388494194218</v>
+        <v>278.55024192591</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>217.7886244255914</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C30" t="n">
-        <v>43.33559514446435</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D30" t="n">
-        <v>43.33559514446435</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E30" t="n">
-        <v>43.33559514446435</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
-        <v>43.33559514446435</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6543,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>425.5489231905453</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>425.5489231905453</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>425.5489231905453</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y30" t="n">
-        <v>217.7886244255914</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="31">
@@ -6637,31 +6637,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C32" t="n">
-        <v>591.4512093066566</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D32" t="n">
-        <v>591.4512093066566</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E32" t="n">
-        <v>591.4512093066566</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F32" t="n">
-        <v>348.0024326625565</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G32" t="n">
-        <v>104.5536560184564</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>104.5536560184564</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.6083788665362</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="C33" t="n">
-        <v>613.4725238202047</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="D33" t="n">
-        <v>464.5381141589534</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="E33" t="n">
-        <v>305.3006591534979</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="F33" t="n">
-        <v>158.7661011803829</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6780,49 +6780,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X33" t="n">
-        <v>720.6083788665362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y33" t="n">
-        <v>720.6083788665362</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>136.7812428759814</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="C36" t="n">
-        <v>136.7812428759814</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="D36" t="n">
-        <v>136.7812428759814</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="E36" t="n">
-        <v>136.7812428759814</v>
+        <v>295.0807182769926</v>
       </c>
       <c r="F36" t="n">
-        <v>136.7812428759814</v>
+        <v>148.5461603038775</v>
       </c>
       <c r="G36" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7017,16 +7017,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.9965798960495</v>
+        <v>454.3181732824481</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
         <v>829.5248650203655</v>
@@ -7129,16 +7129,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>499.3853800778592</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>255.9366034337592</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.38115216564972</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C39" t="n">
-        <v>49.38115216564972</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D39" t="n">
-        <v>49.38115216564972</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7257,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>837.0429277842143</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>608.8193095206034</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>373.6672012888606</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>373.6672012888606</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.38115216564972</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.7718183255803</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="C41" t="n">
-        <v>257.7718183255803</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D41" t="n">
         <v>18.91727947682168</v>
@@ -7418,7 +7418,7 @@
         <v>302.0081369724026</v>
       </c>
       <c r="M41" t="n">
-        <v>518.9837642353068</v>
+        <v>501.1544461991459</v>
       </c>
       <c r="N41" t="n">
         <v>707.0089684063852</v>
@@ -7430,31 +7430,31 @@
         <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>935.7723584728571</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R41" t="n">
-        <v>935.7723584728571</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S41" t="n">
-        <v>735.4808960230977</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T41" t="n">
-        <v>735.4808960230977</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U41" t="n">
-        <v>735.4808960230977</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="V41" t="n">
-        <v>735.4808960230977</v>
+        <v>468.1548961435668</v>
       </c>
       <c r="W41" t="n">
-        <v>496.626357174339</v>
+        <v>468.1548961435668</v>
       </c>
       <c r="X41" t="n">
-        <v>257.7718183255803</v>
+        <v>468.1548961435668</v>
       </c>
       <c r="Y41" t="n">
-        <v>257.7718183255803</v>
+        <v>229.3003572948082</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>243.6337084969718</v>
+        <v>423.1548959709625</v>
       </c>
       <c r="C42" t="n">
-        <v>69.1806792158448</v>
+        <v>248.7018666898354</v>
       </c>
       <c r="D42" t="n">
-        <v>69.1806792158448</v>
+        <v>248.7018666898354</v>
       </c>
       <c r="E42" t="n">
-        <v>69.1806792158448</v>
+        <v>248.7018666898354</v>
       </c>
       <c r="F42" t="n">
-        <v>69.1806792158448</v>
+        <v>248.7018666898354</v>
       </c>
       <c r="G42" t="n">
-        <v>69.1806792158448</v>
+        <v>109.9710412724509</v>
       </c>
       <c r="H42" t="n">
-        <v>19.6714121296074</v>
+        <v>109.9710412724509</v>
       </c>
       <c r="I42" t="n">
         <v>19.6714121296074</v>
@@ -7494,19 +7494,19 @@
         <v>18.91727947682168</v>
       </c>
       <c r="L42" t="n">
-        <v>243.5599732640792</v>
+        <v>174.1654147507498</v>
       </c>
       <c r="M42" t="n">
-        <v>477.6613067897475</v>
+        <v>408.2667482764182</v>
       </c>
       <c r="N42" t="n">
-        <v>711.7626403154159</v>
+        <v>642.3680818020865</v>
       </c>
       <c r="O42" t="n">
-        <v>945.8639738410842</v>
+        <v>876.4694153277549</v>
       </c>
       <c r="P42" t="n">
-        <v>945.8639738410842</v>
+        <v>876.4694153277549</v>
       </c>
       <c r="Q42" t="n">
         <v>945.8639738410842</v>
@@ -7521,19 +7521,19 @@
         <v>945.8639738410842</v>
       </c>
       <c r="U42" t="n">
-        <v>717.6403555774732</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V42" t="n">
-        <v>482.4882473457305</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W42" t="n">
-        <v>243.6337084969718</v>
+        <v>799.1305317559843</v>
       </c>
       <c r="X42" t="n">
-        <v>243.6337084969718</v>
+        <v>799.1305317559843</v>
       </c>
       <c r="Y42" t="n">
-        <v>243.6337084969718</v>
+        <v>591.3702329910304</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>838.6458083585264</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>877.8338465507486</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>921.5246972061849</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="X43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>945.8639738410842</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C44" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D44" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F44" t="n">
         <v>3.166710156947247</v>
@@ -7652,13 +7652,13 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L44" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M44" t="n">
-        <v>81.54278654139161</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N44" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O44" t="n">
         <v>158.3355078473624</v>
@@ -7679,19 +7679,19 @@
         <v>108.260178376266</v>
       </c>
       <c r="U44" t="n">
-        <v>108.260178376266</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="V44" t="n">
         <v>68.2764642733967</v>
       </c>
       <c r="W44" t="n">
-        <v>28.29275017052741</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="X44" t="n">
-        <v>28.29275017052741</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>78.36807964162378</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C45" t="n">
-        <v>38.38436553875449</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D45" t="n">
-        <v>38.38436553875449</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="E45" t="n">
-        <v>38.38436553875449</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F45" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G45" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H45" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I45" t="n">
         <v>3.166710156947247</v>
@@ -7728,49 +7728,49 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K45" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="N45" t="n">
         <v>40.77139327069581</v>
       </c>
-      <c r="L45" t="n">
+      <c r="O45" t="n">
         <v>79.95943146291799</v>
       </c>
-      <c r="M45" t="n">
+      <c r="P45" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="N45" t="n">
-        <v>158.3355078473624</v>
-      </c>
-      <c r="O45" t="n">
-        <v>158.3355078473624</v>
-      </c>
-      <c r="P45" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="Q45" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U45" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V45" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W45" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X45" t="n">
-        <v>118.3517937444931</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y45" t="n">
-        <v>78.36807964162378</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="46">
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C46" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D46" t="n">
         <v>3.166710156947247</v>
@@ -7825,31 +7825,31 @@
         <v>133.1961881840039</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W46" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X46" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y46" t="n">
-        <v>123.1178524655551</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P2" t="n">
         <v>270.8168727171101</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N3" t="n">
         <v>169.3262404810591</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>173.5582843761708</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>181.7179108838589</v>
@@ -8307,13 +8307,13 @@
         <v>170.9255890451739</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>258.0743794427063</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P8" t="n">
         <v>270.8168727171101</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M9" t="n">
-        <v>180.1185623197441</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N9" t="n">
         <v>170.9255890451739</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8690,19 +8690,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>258.0743794427063</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M11" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
         <v>268.9969405584315</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P11" t="n">
         <v>270.8168727171101</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>175.8259673720848</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,19 +8930,19 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M14" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,16 +9012,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N15" t="n">
         <v>170.9255890451739</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>171.9589358120561</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
         <v>279.8985873492159</v>
@@ -9176,7 +9176,7 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P17" t="n">
         <v>275.3651681344982</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -9483,13 +9483,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9720,22 +9720,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -10200,7 +10200,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>349.0484638974528</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,13 +10914,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>431.5041213350942</v>
       </c>
       <c r="N41" t="n">
-        <v>419.3375122542458</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11142,7 +11142,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>365.4661916861949</v>
+        <v>295.3706780363673</v>
       </c>
       <c r="M42" t="n">
         <v>378.6000273822893</v>
@@ -11157,7 +11157,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11300,7 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M44" t="n">
         <v>269.9301101891133</v>
@@ -11309,7 +11309,7 @@
         <v>267.3975919943167</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>170.9255890451739</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22595,10 +22595,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>174.1545907582562</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,13 +22607,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.654061694213</v>
+        <v>351.3724598280644</v>
       </c>
     </row>
     <row r="3">
@@ -22635,19 +22635,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,16 +22671,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22802,10 +22802,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>197.5503993115741</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>110.2852409793091</v>
@@ -22838,7 +22838,7 @@
         <v>183.5119726022908</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>216.4801740798473</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22872,10 +22872,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>110.2037335653947</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>97.75964020137005</v>
+        <v>103.2246296614793</v>
       </c>
       <c r="H6" t="n">
         <v>72.65156727465587</v>
@@ -22884,7 +22884,7 @@
         <v>49.81275588957449</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22984,7 +22984,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>76.18449089043011</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R7" t="n">
         <v>137.7095144153289</v>
@@ -22993,7 +22993,7 @@
         <v>184.4327210751317</v>
       </c>
       <c r="T7" t="n">
-        <v>188.3617124664409</v>
+        <v>217.9680370670172</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>110.2852409793091</v>
@@ -23075,7 +23075,7 @@
         <v>183.5119726022908</v>
       </c>
       <c r="U8" t="n">
-        <v>226.4708732943921</v>
+        <v>216.4801740798473</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23109,19 +23109,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23191,10 +23191,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>158.0134269971945</v>
       </c>
       <c r="H10" t="n">
-        <v>134.9352350102176</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I10" t="n">
         <v>115.8665979654177</v>
@@ -23203,7 +23203,7 @@
         <v>53.77530315483219</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>319.8175627926938</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23306,25 +23306,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>174.1545907582562</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23346,19 +23346,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>65.29235532465395</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>372.0105669137222</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,19 +23537,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>184.145289972801</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23583,19 +23583,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,16 +23622,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>136.8176922758487</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23668,7 +23668,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>122.643295545599</v>
+        <v>134.9352350102176</v>
       </c>
       <c r="I16" t="n">
         <v>115.8665979654177</v>
@@ -23677,7 +23677,7 @@
         <v>53.77530315483219</v>
       </c>
       <c r="K16" t="n">
-        <v>12.29193946461858</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>171.6042721387814</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,19 +23774,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>222.4647346907568</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23914,7 +23914,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
-        <v>22.26949182588285</v>
+        <v>21.47904137820059</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T19" t="n">
         <v>183.8134170490529</v>
       </c>
       <c r="U19" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>251.3471928761457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24045,13 +24045,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>23.47332389808653</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24096,16 +24096,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>34.67690903038678</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24218,10 +24218,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>255.0550143366059</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,19 +24248,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>307.3148329761767</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>145.2236497783945</v>
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24297,13 +24297,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>124.3098964137661</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,22 +24333,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>74.20128542494614</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,16 +24379,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>144.6688768646272</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,16 +24455,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,28 +24485,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>160.9567151697601</v>
       </c>
       <c r="V26" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,22 +24528,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>47.53375785379006</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,22 +24570,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>225.0682567868759</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24680,7 +24680,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,10 +24689,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,25 +24725,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>182.9602352466289</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,22 +24756,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>113.5296096493015</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,19 +24804,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>59.75548455249168</v>
       </c>
     </row>
     <row r="31">
@@ -24877,7 +24877,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,10 +24917,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>132.4398060348572</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,13 +24929,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>126.0561017912447</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24962,10 +24962,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24996,25 +24996,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>66.64400249244758</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>26.98684672813006</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25056,13 +25056,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25090,7 +25090,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,13 +25196,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>6.725383157348171</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25239,19 +25239,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>9.371150141482474</v>
       </c>
       <c r="H36" t="n">
-        <v>85.30697831980052</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25290,16 +25290,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25369,7 +25369,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25397,19 +25397,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,13 +25433,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>151.9490329357426</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25476,10 +25476,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>128.5926628167762</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,7 +25521,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>74.42064324566388</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25530,7 +25530,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>174.454594623674</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>118.2170481604119</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25670,31 +25670,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>10.73152176098347</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>14.87965944756544</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>91.28626500986385</v>
       </c>
       <c r="W41" t="n">
-        <v>112.774975257142</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>149.7719451957825</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25719,13 +25719,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>63.22126982112143</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25761,19 +25761,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>106.4288754966707</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25874,7 +25874,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25919,13 +25919,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V44" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25944,16 +25944,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25962,7 +25962,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>54.53115402342591</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25989,10 +25989,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>136.8176922758487</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26007,10 +26007,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26023,10 +26023,10 @@
         <v>140.2481032200967</v>
       </c>
       <c r="C46" t="n">
-        <v>127.6629441367872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>109.0315960563718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26065,13 +26065,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>76.18449089043011</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.6071009908305</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355268.3982687964</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355268.3982687964</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355268.3982687964</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495251.8800453862</v>
+        <v>495251.8800453863</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355268.3982687963</v>
+        <v>355268.3982687966</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59211.39971146601</v>
+        <v>59211.39971146602</v>
       </c>
       <c r="C2" t="n">
         <v>59211.39971146601</v>
       </c>
       <c r="D2" t="n">
-        <v>59211.39971146601</v>
+        <v>59211.399711466</v>
       </c>
       <c r="E2" t="n">
-        <v>59211.39971146599</v>
+        <v>59211.39971146602</v>
       </c>
       <c r="F2" t="n">
         <v>59211.39971146601</v>
       </c>
       <c r="G2" t="n">
-        <v>59776.50267559939</v>
+        <v>59776.5026755994</v>
       </c>
       <c r="H2" t="n">
+        <v>83080.33626566618</v>
+      </c>
+      <c r="I2" t="n">
+        <v>83080.33626566619</v>
+      </c>
+      <c r="J2" t="n">
+        <v>83080.33626566618</v>
+      </c>
+      <c r="K2" t="n">
+        <v>83080.33626566616</v>
+      </c>
+      <c r="L2" t="n">
         <v>83080.33626566621</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>83080.33626566616</v>
+      </c>
+      <c r="N2" t="n">
         <v>83080.33626566618</v>
       </c>
-      <c r="J2" t="n">
-        <v>83080.33626566621</v>
-      </c>
-      <c r="K2" t="n">
-        <v>83080.33626566621</v>
-      </c>
-      <c r="L2" t="n">
-        <v>83080.33626566618</v>
-      </c>
-      <c r="M2" t="n">
-        <v>83080.33626566619</v>
-      </c>
-      <c r="N2" t="n">
-        <v>83080.33626566621</v>
-      </c>
       <c r="O2" t="n">
-        <v>82541.98000756436</v>
+        <v>82541.98000756434</v>
       </c>
       <c r="P2" t="n">
         <v>59211.39971146602</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>33.41106180436364</v>
       </c>
       <c r="F4" t="n">
-        <v>33.41106180436364</v>
+        <v>33.41106180436363</v>
       </c>
       <c r="G4" t="n">
         <v>36.87052286425573</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9878.221331298832</v>
+        <v>9878.221331298839</v>
       </c>
       <c r="C6" t="n">
         <v>23143.68893038174</v>
       </c>
       <c r="D6" t="n">
-        <v>23143.68893038174</v>
+        <v>23143.68893038173</v>
       </c>
       <c r="E6" t="n">
-        <v>56771.28893038171</v>
+        <v>56771.28893038174</v>
       </c>
       <c r="F6" t="n">
         <v>56771.28893038174</v>
       </c>
       <c r="G6" t="n">
-        <v>55809.77652260324</v>
+        <v>55809.77652260325</v>
       </c>
       <c r="H6" t="n">
-        <v>15126.56803387554</v>
+        <v>15126.56803387551</v>
       </c>
       <c r="I6" t="n">
+        <v>68247.13500420055</v>
+      </c>
+      <c r="J6" t="n">
+        <v>57890.25110039672</v>
+      </c>
+      <c r="K6" t="n">
+        <v>68247.13500420052</v>
+      </c>
+      <c r="L6" t="n">
+        <v>68247.13500420057</v>
+      </c>
+      <c r="M6" t="n">
+        <v>68247.13500420052</v>
+      </c>
+      <c r="N6" t="n">
         <v>68247.13500420054</v>
       </c>
-      <c r="J6" t="n">
-        <v>57890.25110039675</v>
-      </c>
-      <c r="K6" t="n">
-        <v>68247.13500420057</v>
-      </c>
-      <c r="L6" t="n">
-        <v>68247.13500420054</v>
-      </c>
-      <c r="M6" t="n">
-        <v>68247.13500420055</v>
-      </c>
-      <c r="N6" t="n">
-        <v>68247.13500420057</v>
-      </c>
       <c r="O6" t="n">
-        <v>67988.61082990078</v>
+        <v>67988.61082990076</v>
       </c>
       <c r="P6" t="n">
         <v>56771.28893038174</v>
@@ -34699,19 +34699,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="P2" t="n">
         <v>39.58387696184059</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N3" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>39.58387696184059</v>
@@ -35027,13 +35027,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="O6" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="M8" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>39.58387696184059</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M9" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N9" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
       <c r="M11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P11" t="n">
         <v>39.58387696184059</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="L12" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="M12" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,19 +35650,19 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L14" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="M14" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N15" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="P15" t="n">
-        <v>37.98452839772582</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="M17" t="n">
-        <v>42.34905430330019</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P17" t="n">
         <v>44.13217237922859</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36203,13 +36203,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36440,22 +36440,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>217.7067518141195</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,10 +37315,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,7 +37625,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,13 +37634,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>201.1578881078215</v>
       </c>
       <c r="N41" t="n">
-        <v>189.9244486576549</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>226.9118119063207</v>
+        <v>156.8162982564931</v>
       </c>
       <c r="M42" t="n">
         <v>236.4659934602711</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M44" t="n">
         <v>39.58387696184059</v>
@@ -38029,7 +38029,7 @@
         <v>37.98452839772582</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="L45" t="n">
+      <c r="O45" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="M45" t="n">
+      <c r="P45" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="N45" t="n">
+      <c r="Q45" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376800.6061809955</v>
+        <v>373609.6494672063</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221766</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179436</v>
+        <v>19492207.60956403</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901378.246697891</v>
+        <v>5116643.000488907</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y2" t="n">
-        <v>34.86547882798917</v>
+        <v>38.87161743162454</v>
       </c>
     </row>
     <row r="3">
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U3" t="n">
-        <v>34.86547882798917</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -938,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>39.58387696184059</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="S5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U5" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -981,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G6" t="n">
-        <v>34.11888750173132</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1093,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
-        <v>39.58387696184059</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T7" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1175,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>39.58387696184059</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="S8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U9" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
     </row>
     <row r="12">
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.86547882798917</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>27.29193749722201</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1652,19 +1654,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>24.87477961344436</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
-        <v>39.58387696184059</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1689,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1780,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>27.29193749722201</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1886,25 +1888,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>44.13217237922859</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>44.13217237922859</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>28.88091821707973</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.87161743162455</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>44.13217237922859</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>147.9845033927267</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2026,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>81.94696239689883</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>191.264473050588</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2245,61 +2247,61 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,13 +2365,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,16 +2411,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>13.03362074944456</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>98.32840146645123</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2454,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2491,16 +2493,16 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2558,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,55 +2572,55 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T26" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U26" t="n">
-        <v>90.38893773807641</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2685,22 +2687,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>43.33517205040123</v>
       </c>
       <c r="U27" t="n">
-        <v>0.8731252940988786</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,70 +2794,70 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2874,13 +2876,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>49.23175083062952</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2931,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>145.9272112248127</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2989,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C32" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>241.0142888776591</v>
@@ -3038,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3117,19 +3119,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>118.0823656652538</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>150.3641518778115</v>
       </c>
     </row>
     <row r="34">
@@ -3187,70 +3189,70 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>33.80371536444976</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>127.9723670217282</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,10 +3395,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3408,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.15234209992653</v>
       </c>
     </row>
     <row r="37">
@@ -3424,58 +3426,58 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3509,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3521,7 +3523,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3591,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>125.7440854491577</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>188.2184153478179</v>
       </c>
     </row>
     <row r="40">
@@ -3676,58 +3678,58 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>208.2792470398066</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>116.325098768111</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3831,16 +3833,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3879,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>145.2661076642489</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4022,16 +4024,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>39.58387696184059</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>24.87477961344436</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4053,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>150.4149128677507</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>34.86547882798917</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4177,19 +4179,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>81.54278654139161</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M2" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N2" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T2" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U2" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V2" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W2" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X2" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y2" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="C3" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D3" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E3" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F3" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G3" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H3" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M3" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N3" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T3" t="n">
-        <v>38.38436553875449</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U3" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="V3" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="W3" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="X3" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1961881840039</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M5" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N5" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S5" t="n">
-        <v>78.36807964162378</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T5" t="n">
-        <v>38.38436553875449</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E6" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F6" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G6" t="n">
-        <v>83.88827101547153</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H6" t="n">
-        <v>43.90455691260225</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M6" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N6" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>93.21247408113457</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R7" t="n">
-        <v>53.22875997826529</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S7" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M8" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S8" t="n">
-        <v>78.36807964162378</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T8" t="n">
-        <v>38.38436553875449</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>79.95943146291799</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>119.1474696551402</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N9" t="n">
-        <v>158.3355078473624</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O9" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S9" t="n">
-        <v>78.36807964162378</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T9" t="n">
-        <v>38.38436553875449</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L11" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M11" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N11" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T11" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U11" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V11" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W11" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X11" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L12" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N12" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O12" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>123.1178524655551</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S12" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T12" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H13" t="n">
-        <v>105.6285745504463</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I13" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J13" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M14" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N14" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O14" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>108.260178376266</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S14" t="n">
-        <v>83.13413836268582</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T14" t="n">
-        <v>43.15042425981653</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U14" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C15" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D15" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E15" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F15" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G15" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M15" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N15" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V15" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W15" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X15" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H16" t="n">
-        <v>105.6285745504463</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I16" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J16" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>121.8591222504766</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>77.28117035226589</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>32.70321845405519</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C18" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D18" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E18" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F18" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>47.22142444577459</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M18" t="n">
-        <v>47.22142444577459</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N18" t="n">
-        <v>47.22142444577459</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>89.14698820604177</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>137.2644294849704</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>92.68647758675968</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>48.10852568854899</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>3.530573790338288</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="W18" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="X18" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>262.7299197543128</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>395.2567788952347</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>395.2567788952347</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>395.2567788952347</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X21" t="n">
-        <v>395.2567788952347</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y21" t="n">
-        <v>187.4964801302808</v>
+        <v>102.8099852548154</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
         <v>19.28114311021272</v>
@@ -5947,13 +5949,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>104.5536560184564</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>104.5536560184564</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>385.8037236438013</v>
+        <v>257.3335861704772</v>
       </c>
       <c r="C24" t="n">
-        <v>385.8037236438013</v>
+        <v>257.3335861704772</v>
       </c>
       <c r="D24" t="n">
-        <v>236.8693139825501</v>
+        <v>257.3335861704772</v>
       </c>
       <c r="E24" t="n">
-        <v>236.8693139825501</v>
+        <v>257.3335861704772</v>
       </c>
       <c r="F24" t="n">
-        <v>236.8693139825501</v>
+        <v>257.3335861704772</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>118.6027607530928</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,7 +6077,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X24" t="n">
-        <v>554.0190606638694</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="Y24" t="n">
-        <v>554.0190606638694</v>
+        <v>425.5489231905453</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D26" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E26" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F26" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G26" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>110.334904905842</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6335,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>645.6973804531794</v>
       </c>
       <c r="U27" t="n">
-        <v>486.4017421314428</v>
+        <v>645.6973804531794</v>
       </c>
       <c r="V27" t="n">
-        <v>486.4017421314428</v>
+        <v>645.6973804531794</v>
       </c>
       <c r="W27" t="n">
-        <v>486.4017421314428</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="X27" t="n">
-        <v>278.55024192591</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y27" t="n">
-        <v>278.55024192591</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="28">
@@ -6412,7 +6414,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>648.4405950311615</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6546,10 +6548,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X30" t="n">
-        <v>964.0571555106362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y30" t="n">
-        <v>816.6559320512295</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="31">
@@ -6637,25 +6639,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y32" t="n">
-        <v>953.9655401424092</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>481.7099827492369</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C33" t="n">
-        <v>481.7099827492369</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D33" t="n">
-        <v>481.7099827492369</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E33" t="n">
-        <v>481.7099827492369</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W33" t="n">
-        <v>689.4702815141908</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X33" t="n">
-        <v>689.4702815141908</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y33" t="n">
-        <v>481.7099827492369</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6964,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>454.3181732824481</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>454.3181732824481</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>454.3181732824481</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>295.0807182769926</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>148.5461603038775</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U36" t="n">
-        <v>689.4702815141908</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V36" t="n">
-        <v>454.3181732824481</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W36" t="n">
-        <v>454.3181732824481</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X36" t="n">
-        <v>454.3181732824481</v>
+        <v>217.6974229850125</v>
       </c>
       <c r="Y36" t="n">
-        <v>454.3181732824481</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7208,16 +7210,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7260,43 +7262,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>837.0429277842143</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U39" t="n">
-        <v>608.8193095206034</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V39" t="n">
-        <v>373.6672012888606</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W39" t="n">
-        <v>373.6672012888606</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X39" t="n">
-        <v>165.8157010833278</v>
+        <v>209.4007545726551</v>
       </c>
       <c r="Y39" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
         <v>829.5248650203655</v>
@@ -7375,7 +7377,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>707.0094349923255</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>468.1548961435668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>468.1548961435668</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>468.1548961435668</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.3003572948082</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>423.1548959709625</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C42" t="n">
-        <v>248.7018666898354</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>248.7018666898354</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>248.7018666898354</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>248.7018666898354</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>109.9710412724509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>109.9710412724509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>19.6714121296074</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>174.1654147507498</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>408.2667482764182</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N42" t="n">
-        <v>642.3680818020865</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>876.4694153277549</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>799.1305317559843</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>799.1305317559843</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y42" t="n">
-        <v>591.3702329910304</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>838.6458083585264</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>877.8338465507486</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>921.5246972061849</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43.15042425981653</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>43.15042425981653</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>43.15042425981653</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>43.15042425981653</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>42.35474834916943</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>81.54278654139161</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>120.7308247336138</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>158.3355078473624</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>158.3355078473624</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>148.2438924791353</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>108.260178376266</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>108.260178376266</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T44" t="n">
-        <v>108.260178376266</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
-        <v>68.2764642733967</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>68.2764642733967</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>68.2764642733967</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>68.2764642733967</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>43.15042425981653</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>83.13413836268582</v>
+        <v>171.2153985321831</v>
       </c>
       <c r="C45" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>3.166710156947247</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>3.166710156947247</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>40.77139327069581</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
-        <v>79.95943146291799</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>83.13413836268582</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>83.13413836268582</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>83.13413836268582</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V45" t="n">
-        <v>83.13413836268582</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W45" t="n">
-        <v>83.13413836268582</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X45" t="n">
-        <v>83.13413836268582</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y45" t="n">
-        <v>83.13413836268582</v>
+        <v>339.4307355522512</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>123.1178524655551</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>83.13413836268582</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>43.15042425981653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>43.15042425981653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>268.0827398194126</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M3" t="n">
-        <v>181.7179108838589</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
         <v>235.7664149699872</v>
@@ -8225,13 +8227,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>267.3975919943167</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O5" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,19 +8303,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
-        <v>170.9255890451739</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
-        <v>180.5807728421703</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M8" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N9" t="n">
-        <v>170.9255890451739</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L11" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
-        <v>180.1185623197441</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N12" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -8787,7 +8789,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M15" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,22 +9248,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,10 +9725,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>349.0484638974528</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>292.5201795090609</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>431.5041213350942</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11142,19 +11144,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>295.3706780363673</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>259.6737280068211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>269.9301101891133</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>267.3975919943167</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>169.3262404810591</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22595,10 +22597,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y2" t="n">
-        <v>351.3724598280644</v>
+        <v>347.366321224429</v>
       </c>
     </row>
     <row r="3">
@@ -22647,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.57395719080255</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>160.580851732981</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
-        <v>191.0759032529857</v>
+        <v>187.8163559756081</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22720,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22826,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>110.2852409793091</v>
+        <v>120.9881997240699</v>
       </c>
       <c r="S5" t="n">
-        <v>169.4361926244048</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T5" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U5" t="n">
-        <v>216.4801740798473</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22869,22 +22871,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G6" t="n">
-        <v>103.2246296614793</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H6" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>50.52501541979053</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22981,19 +22983,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
-        <v>184.4327210751317</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T7" t="n">
-        <v>217.9680370670172</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23063,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>110.2852409793091</v>
+        <v>120.9881997240699</v>
       </c>
       <c r="S8" t="n">
-        <v>169.4361926244048</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
-        <v>216.4801740798473</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>60.57395719080255</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S9" t="n">
-        <v>132.0992941419972</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T9" t="n">
-        <v>160.580851732981</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U9" t="n">
-        <v>191.0759032529857</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23191,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>158.0134269971945</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23218,16 +23220,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23306,25 +23308,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>174.1545907582562</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>288.1683815082943</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>347.366321224429</v>
       </c>
     </row>
     <row r="12">
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>65.29235532465395</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S12" t="n">
-        <v>132.0992941419972</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T12" t="n">
-        <v>160.580851732981</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U12" t="n">
-        <v>186.3575051191342</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23431,13 +23433,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>134.9352350102176</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I13" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J13" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23540,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>184.145289972801</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T14" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
-        <v>211.7617759459959</v>
+        <v>222.4647346907568</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23577,19 +23579,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>108.5734481330142</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23622,16 +23624,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>136.8176922758487</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23668,13 +23670,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>134.9352350102176</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I16" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J16" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23774,25 +23776,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>105.7369455619211</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8878972070167</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>222.4647346907568</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23829,7 +23831,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>61.28621672101858</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>181.8092097017462</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>84.81608375669853</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23914,7 +23916,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
-        <v>21.47904137820059</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,7 +24025,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>65.49810316773993</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,22 +24098,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>34.67690903038678</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>255.0550143366059</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24251,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24288,7 +24290,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24297,16 +24299,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>124.3098964137661</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>13.90704277004524</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24342,13 +24344,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24379,16 +24381,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>144.6688768646272</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24446,10 +24448,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>352.8735455476468</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,13 +24460,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>160.9567151697601</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24540,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24573,22 +24575,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>156.8295566444204</v>
       </c>
       <c r="U27" t="n">
-        <v>225.0682567868759</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24652,10 +24654,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24722,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24762,13 +24764,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24804,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>122.4514202732083</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24819,13 +24821,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>59.75548455249168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24877,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24892,13 +24894,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C32" t="n">
-        <v>132.4398060348572</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>113.6687527430239</v>
@@ -24926,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25005,19 +25007,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>26.98684672813006</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>55.31854389949291</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288197</v>
+        <v>348.126654707812</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25202,7 +25204,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25239,13 +25241,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>9.371150141482474</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25296,10 +25298,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>176.5303536773778</v>
       </c>
     </row>
     <row r="37">
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25363,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25397,10 +25399,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25409,7 +25411,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25448,7 +25450,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25479,7 +25481,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>74.42064324566388</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>17.46428042948642</v>
       </c>
     </row>
     <row r="40">
@@ -25564,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>174.454594623674</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25682,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>14.87965944756544</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>91.28626500986385</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.7719451957825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25719,16 +25721,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25767,10 +25769,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>106.4288754966707</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C43" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25874,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>367.2921687798708</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>110.2852409793091</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>361.3631590426092</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>22.29358612056504</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>136.8176922758487</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26004,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.2481032200967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26065,19 +26067,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>76.18449089043011</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355268.3982687964</v>
+        <v>358659.0160535968</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535968</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535968</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495251.8800453863</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355268.3982687966</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59211.39971146602</v>
+        <v>59776.50267559937</v>
       </c>
       <c r="C2" t="n">
-        <v>59211.39971146601</v>
+        <v>59776.50267559937</v>
       </c>
       <c r="D2" t="n">
-        <v>59211.399711466</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="E2" t="n">
-        <v>59211.39971146602</v>
+        <v>59776.50267559936</v>
       </c>
       <c r="F2" t="n">
-        <v>59211.39971146601</v>
+        <v>59776.50267559937</v>
       </c>
       <c r="G2" t="n">
-        <v>59776.5026755994</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="H2" t="n">
+        <v>83080.33626566621</v>
+      </c>
+      <c r="I2" t="n">
+        <v>83080.33626566621</v>
+      </c>
+      <c r="J2" t="n">
+        <v>83080.33626566621</v>
+      </c>
+      <c r="K2" t="n">
+        <v>83080.33626566621</v>
+      </c>
+      <c r="L2" t="n">
         <v>83080.33626566618</v>
       </c>
-      <c r="I2" t="n">
-        <v>83080.33626566619</v>
-      </c>
-      <c r="J2" t="n">
-        <v>83080.33626566618</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>83080.33626566621</v>
+      </c>
+      <c r="N2" t="n">
         <v>83080.33626566616</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>83080.33626566621</v>
       </c>
-      <c r="M2" t="n">
-        <v>83080.33626566616</v>
-      </c>
-      <c r="N2" t="n">
-        <v>83080.33626566618</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82541.98000756434</v>
-      </c>
       <c r="P2" t="n">
-        <v>59211.39971146602</v>
+        <v>83080.33626566621</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="C4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="D4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="E4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="F4" t="n">
-        <v>33.41106180436363</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="G4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
         <v>179.5324977039669</v>
@@ -26454,10 +26456,10 @@
         <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>176.2367752791008</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>33.41106180436364</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9878.221331298839</v>
+        <v>8639.090067833793</v>
       </c>
       <c r="C6" t="n">
-        <v>23143.68893038174</v>
+        <v>23428.79607207802</v>
       </c>
       <c r="D6" t="n">
-        <v>23143.68893038173</v>
+        <v>23428.79607207803</v>
       </c>
       <c r="E6" t="n">
-        <v>56771.28893038174</v>
+        <v>57056.396072078</v>
       </c>
       <c r="F6" t="n">
-        <v>56771.28893038174</v>
+        <v>57056.39607207802</v>
       </c>
       <c r="G6" t="n">
-        <v>55809.77652260325</v>
+        <v>14284.70010372822</v>
       </c>
       <c r="H6" t="n">
-        <v>15126.56803387551</v>
+        <v>68247.13500420057</v>
       </c>
       <c r="I6" t="n">
-        <v>68247.13500420055</v>
+        <v>68247.13500420057</v>
       </c>
       <c r="J6" t="n">
-        <v>57890.25110039672</v>
+        <v>56700.21689420968</v>
       </c>
       <c r="K6" t="n">
+        <v>68247.13500420057</v>
+      </c>
+      <c r="L6" t="n">
+        <v>68247.13500420054</v>
+      </c>
+      <c r="M6" t="n">
+        <v>68247.13500420057</v>
+      </c>
+      <c r="N6" t="n">
         <v>68247.13500420052</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
+        <v>20867.25678673678</v>
+      </c>
+      <c r="P6" t="n">
         <v>68247.13500420057</v>
-      </c>
-      <c r="M6" t="n">
-        <v>68247.13500420052</v>
-      </c>
-      <c r="N6" t="n">
-        <v>68247.13500420054</v>
-      </c>
-      <c r="O6" t="n">
-        <v>67988.61082990076</v>
-      </c>
-      <c r="P6" t="n">
-        <v>56771.28893038174</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O6" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M8" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N24" t="n">
         <v>217.7067518141195</v>
-      </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>161.1784674257276</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37075,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37318,7 +37320,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>201.1578881078215</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>156.8162982564931</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>39.58387696184059</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>39.58387696184059</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>37.98452839772582</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>37.98452839772582</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>39.58387696184059</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373609.6494672063</v>
+        <v>268277.9841761547</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782366</v>
+        <v>925399.3994514375</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956403</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5116643.000488907</v>
+        <v>5764008.847562065</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -703,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>48.20877783911581</v>
       </c>
       <c r="T3" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -858,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -980,25 +980,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>90.72842607853643</v>
       </c>
       <c r="E6" t="n">
-        <v>44.13217237922859</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>28.88091821707974</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>44.13217237922859</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>78.19622121383934</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>38.87161743162455</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1332,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>22.43212445296252</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>38.87161743162455</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>44.13217237922859</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1545,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1651,25 +1651,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1691,25 +1691,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>44.13217237922859</v>
+        <v>45.27093583804391</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1782,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1861,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>112.3289263072337</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>29.23915291401995</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -1973,19 +1973,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>147.9845033927267</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2165,25 +2165,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>81.94696239689883</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>8.831844153734401</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,23 +2317,23 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2411,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>98.32840146645123</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>146.175361316945</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>114.9581870864144</v>
       </c>
       <c r="D26" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2599,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>43.33517205040123</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>55.57566235103572</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>52.42556848774752</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
@@ -2854,7 +2854,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2891,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>49.23175083062952</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>99.52914681518106</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,68 +3028,68 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>23.81301614990497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>150.3641518778115</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>33.80371536444976</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,10 +3286,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,25 +3310,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3359,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>18.23903973000353</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.15234209992653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,61 +3517,61 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3629,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>188.2184153478179</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="40">
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,23 +3739,23 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
@@ -3784,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="43">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888297</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>150.4149128677507</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>98.22847700514947</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>131.9507376187037</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>131.9507376187037</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>131.9507376187037</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>131.9507376187037</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>87.37278572049297</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>42.79483382228227</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.284706443124001</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C3" t="n">
-        <v>4.284706443124001</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D3" t="n">
-        <v>4.284706443124001</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E3" t="n">
-        <v>4.284706443124001</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F3" t="n">
-        <v>4.284706443124001</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G3" t="n">
-        <v>4.284706443124001</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>45.45613755060546</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>87.37278572049297</v>
+        <v>814.1918908724958</v>
       </c>
       <c r="T3" t="n">
-        <v>42.79483382228227</v>
+        <v>612.0052962312618</v>
       </c>
       <c r="U3" t="n">
-        <v>4.284706443124001</v>
+        <v>612.0052962312618</v>
       </c>
       <c r="V3" t="n">
-        <v>4.284706443124001</v>
+        <v>376.8531879995192</v>
       </c>
       <c r="W3" t="n">
-        <v>4.284706443124001</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="X3" t="n">
-        <v>4.284706443124001</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.284706443124001</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.530573790338288</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>92.68647758675968</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>48.10852568854899</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.5286895169144</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C6" t="n">
-        <v>176.5286895169144</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D6" t="n">
-        <v>176.5286895169144</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="E6" t="n">
-        <v>131.9507376187037</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F6" t="n">
-        <v>87.37278572049297</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>42.79483382228227</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>42.79483382228227</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>45.45613755060546</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>89.14698820604177</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>137.2644294849704</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>92.68647758675968</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T8" t="n">
-        <v>48.10852568854899</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U8" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.530573790338288</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C9" t="n">
-        <v>3.530573790338288</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D9" t="n">
-        <v>3.530573790338288</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>45.45613755060546</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>89.14698820604177</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>137.2644294849704</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>48.10852568854899</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>3.530573790338288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>3.530573790338288</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
-        <v>3.530573790338288</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X9" t="n">
-        <v>3.530573790338288</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.530573790338288</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V11" t="n">
-        <v>131.9507376187037</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W11" t="n">
-        <v>87.37278572049297</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>42.79483382228227</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.530573790338288</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C12" t="n">
-        <v>3.530573790338288</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D12" t="n">
-        <v>3.530573790338288</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>89.14698820604177</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>132.8378388614781</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>132.8378388614781</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>137.2644294849704</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>48.10852568854899</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>3.530573790338288</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V12" t="n">
-        <v>3.530573790338288</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W12" t="n">
-        <v>3.530573790338288</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X12" t="n">
-        <v>3.530573790338288</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.530573790338288</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.530573790338288</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C14" t="n">
-        <v>3.530573790338288</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D14" t="n">
-        <v>3.530573790338288</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E14" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>166.4370741486873</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>121.8591222504766</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T14" t="n">
-        <v>77.28117035226589</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U14" t="n">
-        <v>48.10852568854899</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V14" t="n">
-        <v>3.530573790338288</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W14" t="n">
-        <v>3.530573790338288</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X14" t="n">
-        <v>3.530573790338288</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.530573790338288</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.5286895169144</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C15" t="n">
-        <v>176.5286895169144</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D15" t="n">
-        <v>137.2644294849704</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E15" t="n">
-        <v>92.68647758675968</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F15" t="n">
-        <v>48.10852568854899</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G15" t="n">
-        <v>48.10852568854899</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>89.14698820604177</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V15" t="n">
-        <v>176.5286895169144</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W15" t="n">
-        <v>176.5286895169144</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X15" t="n">
-        <v>176.5286895169144</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y15" t="n">
-        <v>176.5286895169144</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>109.5807722530562</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="C18" t="n">
-        <v>109.5807722530562</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="D18" t="n">
-        <v>109.5807722530562</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="E18" t="n">
-        <v>109.5807722530562</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="F18" t="n">
-        <v>109.5807722530562</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>109.5807722530562</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
         <v>109.5807722530562</v>
@@ -5597,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>109.5807722530562</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W18" t="n">
-        <v>109.5807722530562</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X18" t="n">
-        <v>109.5807722530562</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y18" t="n">
-        <v>109.5807722530562</v>
+        <v>391.2152311558108</v>
       </c>
     </row>
     <row r="19">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>102.8099852548154</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C21" t="n">
-        <v>102.8099852548154</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5840,13 +5840,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>518.4217842253022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>310.5702840197694</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y21" t="n">
-        <v>102.8099852548154</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5949,13 +5949,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>257.3335861704772</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C24" t="n">
-        <v>257.3335861704772</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D24" t="n">
-        <v>257.3335861704772</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E24" t="n">
-        <v>257.3335861704772</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F24" t="n">
-        <v>257.3335861704772</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G24" t="n">
-        <v>118.6027607530928</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6074,46 +6074,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>660.701031422288</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>425.5489231905453</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>425.5489231905453</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>425.5489231905453</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y24" t="n">
-        <v>425.5489231905453</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="25">
@@ -6171,7 +6171,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C26" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D26" t="n">
         <v>475.3318284112885</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F26" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G26" t="n">
         <v>231.8830517671884</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.4883050441255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>645.6973804531794</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>645.6973804531794</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>645.6973804531794</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>402.2486038090794</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>402.2486038090794</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>194.4883050441255</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6414,13 +6414,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6487,10 +6487,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
         <v>749.627473042513</v>
@@ -6502,13 +6502,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,16 +6548,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>813.1585848204618</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>813.1585848204618</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>813.1585848204618</v>
+        <v>588.9357897816847</v>
       </c>
       <c r="V30" t="n">
-        <v>813.1585848204618</v>
+        <v>353.783681549942</v>
       </c>
       <c r="W30" t="n">
-        <v>569.7098081763618</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X30" t="n">
-        <v>569.7098081763618</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y30" t="n">
-        <v>361.9495094114078</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="31">
@@ -6654,10 +6654,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>929.9119884758385</v>
       </c>
       <c r="S32" t="n">
-        <v>812.6742080953335</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T32" t="n">
-        <v>812.6742080953335</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U32" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V32" t="n">
-        <v>812.6742080953335</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W32" t="n">
-        <v>812.6742080953335</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X32" t="n">
-        <v>812.6742080953335</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y32" t="n">
-        <v>569.2254314512334</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6782,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V33" t="n">
-        <v>735.8335372470253</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>492.3847606029253</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>284.5332603973924</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
         <v>19.28114311021272</v>
@@ -6900,10 +6900,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>752.9257720901863</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C35" t="n">
-        <v>752.9257720901863</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D35" t="n">
-        <v>752.9257720901863</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E35" t="n">
-        <v>718.7806050553886</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F35" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>752.9257720901863</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U35" t="n">
-        <v>752.9257720901863</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V35" t="n">
-        <v>752.9257720901863</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W35" t="n">
-        <v>752.9257720901863</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X35" t="n">
-        <v>752.9257720901863</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y35" t="n">
-        <v>752.9257720901863</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>37.70441556476175</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>37.70441556476175</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>425.5489231905453</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W36" t="n">
-        <v>425.5489231905453</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X36" t="n">
-        <v>217.6974229850125</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="Y36" t="n">
-        <v>188.2506127830665</v>
+        <v>176.4352409821462</v>
       </c>
     </row>
     <row r="37">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
         <v>19.28114311021272</v>
@@ -7125,22 +7125,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7174,7 +7174,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K38" t="n">
         <v>122.2961490211351</v>
@@ -7201,22 +7201,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
         <v>506.1786963984129</v>
@@ -7277,25 +7277,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>660.701031422288</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>660.701031422288</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>417.2522547781879</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>209.4007545726551</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
         <v>19.28114311021272</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7493,13 +7493,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
         <v>473.4149733950735</v>
@@ -7523,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>512.7568786610034</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>171.2153985321831</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>118.5018269537981</v>
       </c>
       <c r="H45" t="n">
         <v>19.28114311021272</v>
@@ -7730,19 +7730,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7754,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>790.6398109613051</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>547.1910343172051</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>547.1910343172051</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y45" t="n">
-        <v>339.4307355522512</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="46">
@@ -7839,13 +7839,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8303,19 +8303,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4738844625619</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4738844625619</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>180.1904932776592</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9257,13 +9257,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9488,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9722,13 +9722,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>349.0484638974528</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10196,19 +10196,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N33" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N42" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22591,16 +22591,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>347.366321224429</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22643,7 +22643,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>123.474393264722</v>
       </c>
       <c r="T3" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.8163559756081</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22725,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22746,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.9881997240699</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22868,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>56.71663948610232</v>
       </c>
       <c r="E6" t="n">
-        <v>113.5129080761724</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>50.52501541979053</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22922,10 +22922,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22947,7 +22947,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22983,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>120.9881997240699</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8878972070167</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T8" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>207.2134805286079</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23108,13 +23108,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>79.44885924156161</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>61.28621672101858</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23220,16 +23220,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23269,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23311,22 +23311,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>283.6200860909063</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>347.366321224429</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23351,16 +23351,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>114.9113927102481</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>61.28621672101858</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>181.8092097017462</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23433,16 +23433,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23503,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23539,25 +23539,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>222.4647346907568</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23579,25 +23579,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>108.5734481330142</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>68.10327185726787</v>
+        <v>66.96450839845255</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23630,13 +23630,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23670,16 +23670,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23749,13 +23749,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>139.0167266006028</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>169.3950043896394</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23822,13 +23822,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>115.8300594793639</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,19 +23861,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>84.81608375669853</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>314.9231005625139</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24053,25 +24053,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>65.49810316773993</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>136.2373682396495</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>210.8693737747013</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24299,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>13.90704277004524</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>59.59762388653243</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24411,10 +24411,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24445,19 +24445,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>250.3147046845932</v>
       </c>
       <c r="D26" t="n">
-        <v>352.8735455476468</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24502,13 +24502,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>156.8295566444204</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24654,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>170.6702810763838</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
@@ -24742,7 +24742,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24779,10 +24779,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,16 +24809,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>122.4514202732083</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>126.4122352657938</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24894,13 +24894,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>320.3175739611883</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24961,22 +24961,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25013,7 +25013,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,10 +25052,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>55.31854389949291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25162,10 +25162,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>348.126654707812</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25174,10 +25174,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,25 +25198,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>182.6195704309962</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25247,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>71.15759312141155</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.5303536773778</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25365,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,10 +25405,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25441,7 +25441,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25450,16 +25450,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>366.4657846212723</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25517,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>17.46428042948642</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="40">
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>242.3541153134493</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25672,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>56.38340022020472</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25763,10 +25763,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="43">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25803,7 +25803,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25873,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>185.9018423672239</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>22.29358612056504</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25958,10 +25958,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>14.00696723134699</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25994,16 +25994,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358659.0160535968</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358659.0160535968</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358659.0160535968</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939973</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939974</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59776.50267559937</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="C2" t="n">
-        <v>59776.50267559937</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="D2" t="n">
-        <v>59776.50267559939</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="E2" t="n">
-        <v>59776.50267559936</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="F2" t="n">
-        <v>59776.50267559937</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="G2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="H2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="I2" t="n">
         <v>83080.33626566621</v>
       </c>
       <c r="J2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="K2" t="n">
         <v>83080.33626566621</v>
@@ -26346,13 +26346,13 @@
         <v>83080.33626566618</v>
       </c>
       <c r="M2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="N2" t="n">
-        <v>83080.33626566616</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="O2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="P2" t="n">
         <v>83080.33626566621</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>36.87052286425572</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8639.090067833793</v>
+        <v>-58367.90714738762</v>
       </c>
       <c r="C6" t="n">
-        <v>23428.79607207802</v>
+        <v>22401.5243841601</v>
       </c>
       <c r="D6" t="n">
-        <v>23428.79607207803</v>
+        <v>22401.52438416005</v>
       </c>
       <c r="E6" t="n">
-        <v>57056.396072078</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="F6" t="n">
-        <v>57056.39607207802</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="G6" t="n">
-        <v>14284.70010372822</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="H6" t="n">
-        <v>68247.13500420057</v>
+        <v>56029.12438416004</v>
       </c>
       <c r="I6" t="n">
-        <v>68247.13500420057</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="J6" t="n">
-        <v>56700.21689420968</v>
+        <v>-7030.818214946155</v>
       </c>
       <c r="K6" t="n">
-        <v>68247.13500420057</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="L6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="M6" t="n">
-        <v>68247.13500420057</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="N6" t="n">
-        <v>68247.13500420052</v>
+        <v>56029.12438416004</v>
       </c>
       <c r="O6" t="n">
-        <v>20867.25678673678</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="P6" t="n">
-        <v>68247.13500420057</v>
+        <v>56029.1243841601</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>42.34905430330018</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>44.13217237922859</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>44.13217237922859</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>42.34905430330018</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>42.34905430330019</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35977,13 +35977,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>217.7067518141195</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37396,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N42" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N45" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268277.9841761547</v>
+        <v>362272.9485238821</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514375</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>19492207.60956403</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5764008.847562065</v>
+        <v>5116643.000488906</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T2" t="n">
-        <v>52.42556848774752</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>48.20877783911581</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>202.2946864288972</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>90.72842607853643</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="7">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="S8" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>78.19622121383934</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T11" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="12">
@@ -1454,25 +1454,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>22.43212445296252</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
     </row>
     <row r="14">
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1703,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>45.27093583804391</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>31.69280399314771</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>29.23915291401995</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1976,16 +1976,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,11 +2092,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>100.3796369526212</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2171,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>8.831844153734401</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2250,43 +2250,43 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>146.175361316945</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>114.9581870864144</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2599,22 +2599,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>5.782984192301424</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>55.57566235103572</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>100.8824071085284</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>103.6238122925896</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>99.52914681518106</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3073,25 +3073,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>23.81301614990497</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>88.75778588514476</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3198,46 +3198,46 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3283,13 +3283,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>40.47627913313517</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3359,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>18.23903973000353</v>
+        <v>22.43212445296252</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3410,7 +3410,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3505,70 +3505,70 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>82.96396779500064</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>9.609021946079816</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3745,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>241.0142888776591</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3827,22 +3827,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>13.9076612891384</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3884,10 +3884,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3915,46 +3915,46 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="Y44" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,25 +4061,25 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>98.22847700514947</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>134.6855069843875</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="X2" t="n">
-        <v>506.1786963984129</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>32.70321845405519</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>133.4044113554191</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C3" t="n">
-        <v>133.4044113554191</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D3" t="n">
-        <v>133.4044113554191</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E3" t="n">
-        <v>133.4044113554191</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F3" t="n">
-        <v>133.4044113554191</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>814.1918908724958</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>612.0052962312618</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>612.0052962312618</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>376.8531879995192</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W3" t="n">
-        <v>133.4044113554191</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X3" t="n">
-        <v>133.4044113554191</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y3" t="n">
-        <v>133.4044113554191</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>32.70321845405519</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>384.2867411876791</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C6" t="n">
-        <v>384.2867411876791</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>292.6418663608746</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>133.4044113554191</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>133.4044113554191</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V6" t="n">
-        <v>627.7355178317791</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W6" t="n">
-        <v>384.2867411876791</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X6" t="n">
-        <v>384.2867411876791</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y6" t="n">
-        <v>384.2867411876791</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S8" t="n">
-        <v>749.627473042513</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U8" t="n">
-        <v>506.1786963984129</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>384.2867411876791</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C9" t="n">
-        <v>384.2867411876791</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D9" t="n">
-        <v>384.2867411876791</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>305.3006591534979</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V9" t="n">
-        <v>627.7355178317791</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W9" t="n">
-        <v>384.2867411876791</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X9" t="n">
-        <v>384.2867411876791</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y9" t="n">
-        <v>384.2867411876791</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T11" t="n">
-        <v>749.627473042513</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U11" t="n">
-        <v>506.1786963984129</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V11" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W11" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>32.70321845405519</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>156.0631229240681</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C12" t="n">
-        <v>156.0631229240681</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D12" t="n">
-        <v>156.0631229240681</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E12" t="n">
-        <v>156.0631229240681</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F12" t="n">
-        <v>156.0631229240681</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G12" t="n">
-        <v>133.4044113554191</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U12" t="n">
-        <v>634.6640077999109</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V12" t="n">
-        <v>399.5118995681682</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W12" t="n">
-        <v>156.0631229240681</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X12" t="n">
-        <v>156.0631229240681</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y12" t="n">
-        <v>156.0631229240681</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>569.2254314512334</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C14" t="n">
-        <v>569.2254314512334</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D14" t="n">
-        <v>569.2254314512334</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E14" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F14" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S14" t="n">
-        <v>812.6742080953335</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T14" t="n">
-        <v>812.6742080953335</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U14" t="n">
-        <v>812.6742080953335</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V14" t="n">
-        <v>812.6742080953335</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W14" t="n">
-        <v>569.2254314512334</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X14" t="n">
-        <v>569.2254314512334</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y14" t="n">
-        <v>569.2254314512334</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>156.0631229240681</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>156.0631229240681</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>156.0631229240681</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0631229240681</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>156.0631229240681</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>156.0631229240681</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U15" t="n">
-        <v>634.6640077999109</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V15" t="n">
-        <v>399.5118995681682</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W15" t="n">
-        <v>156.0631229240681</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X15" t="n">
-        <v>156.0631229240681</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y15" t="n">
-        <v>156.0631229240681</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>274.7999090013961</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="C17" t="n">
-        <v>274.7999090013961</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="D17" t="n">
-        <v>274.7999090013961</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="E17" t="n">
-        <v>274.7999090013961</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="F17" t="n">
-        <v>274.7999090013961</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="G17" t="n">
-        <v>274.7999090013961</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U17" t="n">
-        <v>720.6083788665362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V17" t="n">
-        <v>477.1596022224361</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W17" t="n">
-        <v>477.1596022224361</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X17" t="n">
-        <v>274.7999090013961</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y17" t="n">
-        <v>274.7999090013961</v>
+        <v>587.3248651012614</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>391.2152311558108</v>
+        <v>628.6880980958762</v>
       </c>
       <c r="C18" t="n">
-        <v>391.2152311558108</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="D18" t="n">
-        <v>391.2152311558108</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E18" t="n">
-        <v>391.2152311558108</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5624,22 +5624,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U18" t="n">
-        <v>634.6640077999109</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V18" t="n">
-        <v>634.6640077999109</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W18" t="n">
-        <v>391.2152311558108</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X18" t="n">
-        <v>391.2152311558108</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y18" t="n">
-        <v>391.2152311558108</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="19">
@@ -5697,10 +5697,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5782,22 +5782,22 @@
         <v>601.5428246748836</v>
       </c>
       <c r="T20" t="n">
-        <v>376.1934816808115</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U20" t="n">
-        <v>376.1934816808115</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V20" t="n">
-        <v>376.1934816808115</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W20" t="n">
-        <v>376.1934816808115</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X20" t="n">
-        <v>376.1934816808115</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y20" t="n">
-        <v>376.1934816808115</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C21" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D21" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E21" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F21" t="n">
-        <v>248.3115976704407</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G21" t="n">
-        <v>109.5807722530562</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5837,16 +5837,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X21" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y21" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5934,28 +5934,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>518.2486856454962</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C23" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U23" t="n">
-        <v>761.6974622895962</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V23" t="n">
-        <v>761.6974622895962</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W23" t="n">
-        <v>761.6974622895962</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X23" t="n">
-        <v>761.6974622895962</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y23" t="n">
-        <v>518.2486856454962</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6071,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>591.4512093066566</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U26" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>655.0361258579891</v>
       </c>
     </row>
     <row r="28">
@@ -6408,19 +6408,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6545,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>859.386638043374</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>859.386638043374</v>
       </c>
       <c r="U30" t="n">
-        <v>588.9357897816847</v>
+        <v>631.1630197797631</v>
       </c>
       <c r="V30" t="n">
-        <v>353.783681549942</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="W30" t="n">
-        <v>110.334904905842</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="X30" t="n">
-        <v>110.334904905842</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y30" t="n">
-        <v>110.334904905842</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="31">
@@ -6657,7 +6657,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>929.9119884758385</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>718.7806050553886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>718.7806050553886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U32" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>394.2008556776262</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>394.2008556776262</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6785,7 +6785,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
         <v>486.8488635328713</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>913.4938269565423</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>913.4938269565423</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>913.4938269565423</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>562.4161926976942</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
         <v>19.28114311021272</v>
@@ -6885,25 +6885,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C35" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D35" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E35" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F35" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G35" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V35" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W35" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X35" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.4352409821462</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C36" t="n">
-        <v>176.4352409821462</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D36" t="n">
-        <v>176.4352409821462</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E36" t="n">
-        <v>176.4352409821462</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F36" t="n">
-        <v>176.4352409821462</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G36" t="n">
-        <v>37.70441556476175</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="H36" t="n">
-        <v>37.70441556476175</v>
+        <v>42.69398733164745</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7049,19 +7049,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V36" t="n">
-        <v>627.7355178317791</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W36" t="n">
-        <v>384.2867411876791</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X36" t="n">
-        <v>176.4352409821462</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.4352409821462</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="37">
@@ -7074,13 +7074,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K38" t="n">
         <v>122.2961490211351</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T38" t="n">
-        <v>752.9257720901863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U38" t="n">
-        <v>752.9257720901863</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V38" t="n">
-        <v>509.4769954460863</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W38" t="n">
-        <v>509.4769954460863</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>622.424473941237</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>473.4900642799857</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>314.2526092745302</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>167.7180513014152</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>28.98722588403072</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>28.98722588403072</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7262,13 +7262,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="40">
@@ -7356,16 +7356,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
         <v>19.28114311021272</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>376.1934816808115</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C41" t="n">
-        <v>376.1934816808115</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7441,22 +7441,22 @@
         <v>601.5428246748836</v>
       </c>
       <c r="T41" t="n">
-        <v>376.1934816808115</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U41" t="n">
-        <v>376.1934816808115</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V41" t="n">
-        <v>376.1934816808115</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W41" t="n">
-        <v>376.1934816808115</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X41" t="n">
-        <v>376.1934816808115</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y41" t="n">
-        <v>376.1934816808115</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
         <v>19.28114311021272</v>
@@ -7602,19 +7602,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7690,7 +7690,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y44" t="n">
         <v>761.6974622895962</v>
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>257.2326523711826</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="C45" t="n">
-        <v>257.2326523711826</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D45" t="n">
-        <v>257.2326523711826</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E45" t="n">
-        <v>257.2326523711826</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F45" t="n">
-        <v>257.2326523711826</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>118.5018269537981</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,10 +7733,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
         <v>542.809531908403</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="X45" t="n">
-        <v>257.2326523711826</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="Y45" t="n">
-        <v>257.2326523711826</v>
+        <v>726.8416594126254</v>
       </c>
     </row>
     <row r="46">
@@ -7839,13 +7839,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>312.5030352242461</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>349.0484638974528</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>244.7225752110828</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
-        <v>233.2169876979182</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>244.7225752110828</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9485,19 +9485,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>244.7225752110828</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,10 +10433,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M33" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10910,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M42" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11381,13 +11381,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M45" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22564,7 +22564,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>310.5938838986874</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
-        <v>170.6702810763838</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>98.47189973158609</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>123.474393264722</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22710,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>147.8250225705301</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22725,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22755,7 +22755,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22764,10 +22764,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>162.9782053421103</v>
+        <v>336.3919735539278</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22846,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>56.71663948610232</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22880,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22922,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="7">
@@ -22947,7 +22947,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22989,16 +22989,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>217.7942029044125</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,10 +23029,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>120.9881997240699</v>
       </c>
       <c r="S8" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23108,13 +23108,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>79.44885924156161</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23199,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>154.660024479576</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23232,7 +23232,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23241,13 +23241,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>353.8529234464008</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T11" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="12">
@@ -23342,25 +23342,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>108.5734481330142</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>114.9113927102481</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23393,13 +23393,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23466,7 +23466,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23475,16 +23475,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>217.7942029044125</v>
       </c>
     </row>
     <row r="14">
@@ -23503,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>319.5141023699695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23542,10 +23542,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23557,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>330.8594832468445</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23591,13 +23591,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>66.96450839845255</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23670,10 +23670,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>154.660024479576</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23712,10 +23712,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>130.1411825545859</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>169.3950043896394</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>134.8403796567196</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>115.8300594793639</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23864,16 +23864,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23937,13 +23937,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>288.3233546697745</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>314.9231005625139</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24059,16 +24059,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>136.2373682396495</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>53.98936737787663</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24101,7 +24101,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>294.9288839697323</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,7 +24217,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>210.8693737747013</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24305,7 +24305,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>59.59762388653243</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>250.3147046845932</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>171.0109458920165</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24521,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>160.7501994575659</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>170.3657197299391</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>248.3585616088847</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24779,7 +24779,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>68.0593588112482</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>126.4122352657938</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24897,10 +24897,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24934,10 +24934,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24961,25 +24961,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>126.0561017912447</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>188.9293852055442</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24995,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>58.687279679494</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>50.10013888409016</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25171,13 +25171,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>108.137662477717</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>182.6195704309962</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25216,7 +25216,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25247,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>71.15759312141155</v>
+        <v>66.96450839845255</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,28 +25435,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>366.4657846212723</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>79.78761090533526</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25520,25 +25520,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25608,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25633,13 +25633,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>242.3541153134493</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>174.288448637476</v>
@@ -25648,7 +25648,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25715,22 +25715,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>143.7374191662626</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25763,7 +25763,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,10 +25772,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25803,7 +25803,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>169.3950043896394</v>
       </c>
       <c r="Y44" t="n">
-        <v>185.9018423672239</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25949,25 +25949,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>14.00696723134699</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>36.99766411945029</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535965</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498482.0175939973</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535965</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939973</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939974</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939973</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498482.0175939973</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83080.33626566621</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="C2" t="n">
-        <v>83080.33626566621</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="D2" t="n">
-        <v>83080.33626566615</v>
+        <v>59776.5026755994</v>
       </c>
       <c r="E2" t="n">
-        <v>83080.33626566621</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="F2" t="n">
-        <v>83080.33626566618</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="G2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="H2" t="n">
+        <v>83080.33626566618</v>
+      </c>
+      <c r="I2" t="n">
         <v>83080.33626566615</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>83080.33626566621</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>83080.33626566618</v>
-      </c>
-      <c r="K2" t="n">
-        <v>83080.33626566621</v>
       </c>
       <c r="L2" t="n">
         <v>83080.33626566618</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="C4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="D4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="E4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="F4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58367.90714738762</v>
+        <v>7184.250669929093</v>
       </c>
       <c r="C6" t="n">
-        <v>22401.5243841601</v>
+        <v>21973.95667417331</v>
       </c>
       <c r="D6" t="n">
-        <v>22401.52438416005</v>
+        <v>21973.95667417333</v>
       </c>
       <c r="E6" t="n">
-        <v>56029.1243841601</v>
+        <v>55601.55667417331</v>
       </c>
       <c r="F6" t="n">
-        <v>56029.12438416007</v>
+        <v>55601.55667417331</v>
       </c>
       <c r="G6" t="n">
-        <v>56029.12438416007</v>
+        <v>13062.89904172417</v>
       </c>
       <c r="H6" t="n">
-        <v>56029.12438416004</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="I6" t="n">
-        <v>56029.1243841601</v>
+        <v>67025.33394219646</v>
       </c>
       <c r="J6" t="n">
-        <v>-7030.818214946155</v>
+        <v>55478.41583220563</v>
       </c>
       <c r="K6" t="n">
-        <v>56029.1243841601</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="L6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="M6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="N6" t="n">
-        <v>56029.12438416004</v>
+        <v>67025.33394219646</v>
       </c>
       <c r="O6" t="n">
-        <v>56029.12438416007</v>
+        <v>19645.45572473271</v>
       </c>
       <c r="P6" t="n">
-        <v>56029.1243841601</v>
+        <v>67025.33394219652</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>169.9067907798016</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>113.3808631277494</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
-        <v>91.0829537758999</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655597</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>113.3808631277494</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>113.3808631277494</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M33" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37630,16 +37630,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M42" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
